--- a/RangesOfCloudImages (version 1).xlsx
+++ b/RangesOfCloudImages (version 1).xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anh\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anh\Documents\GitHub\machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D19F6421-14E8-4F8B-B914-83379445F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2404714A-AF4D-410B-9682-9DA62FC87C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A3147F9F-4C4D-477F-94EF-F3FCBDFD725F}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A3147F9F-4C4D-477F-94EF-F3FCBDFD725F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>File</t>
   </si>
@@ -72,18 +70,6 @@
     <t>Far from equator but looks like cloud</t>
   </si>
   <si>
-    <t xml:space="preserve">Is this okay? </t>
-  </si>
-  <si>
-    <t>740?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">455 Tiny clouds. Can we ignore them? </t>
-  </si>
-  <si>
-    <t>980?</t>
-  </si>
-  <si>
     <t>75?</t>
   </si>
   <si>
@@ -126,9 +112,6 @@
     <t>334 a tiny cloud?  Just a flash</t>
   </si>
   <si>
-    <t>Not equator</t>
-  </si>
-  <si>
     <t>472: tiny</t>
   </si>
   <si>
@@ -205,13 +188,88 @@
   </si>
   <si>
     <t>ambigous after</t>
+  </si>
+  <si>
+    <t>Tiny</t>
+  </si>
+  <si>
+    <t>Small cloud x:255</t>
+  </si>
+  <si>
+    <t>looks like airglow</t>
+  </si>
+  <si>
+    <t>Looks like airglow</t>
+  </si>
+  <si>
+    <t>tiny object x:130</t>
+  </si>
+  <si>
+    <t>Good example</t>
+  </si>
+  <si>
+    <t>everything seems to move at the same speed</t>
+  </si>
+  <si>
+    <t>1 bad frame 1912</t>
+  </si>
+  <si>
+    <t>awe_l1r_2024001_00634_q20_v00.nc</t>
+  </si>
+  <si>
+    <t>awe_l1r_2024001_00635_q20_v00.nc</t>
+  </si>
+  <si>
+    <t>Looks like cloud</t>
+  </si>
+  <si>
+    <t>awe_l1r_2024002_00636_q20_v00.nc</t>
+  </si>
+  <si>
+    <t>1266 bad image</t>
+  </si>
+  <si>
+    <t>1368 looks like airglow, good example</t>
+  </si>
+  <si>
+    <t>awe_l1r_2024002_00637_q20_v00.nc</t>
+  </si>
+  <si>
+    <t>awe_l1r_2024002_00638_q20_v00.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominique's Classification vs mine: huge difference. </t>
+  </si>
+  <si>
+    <t>816 could be cloud</t>
+  </si>
+  <si>
+    <t>1421 bad frame</t>
+  </si>
+  <si>
+    <t>awe_l1r_2024002_00645_q20_v00.nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the start? </t>
+  </si>
+  <si>
+    <t>Sometimes, clouds move at the same speed as airglow</t>
+  </si>
+  <si>
+    <t>1051 bad frame</t>
+  </si>
+  <si>
+    <t>1500?</t>
+  </si>
+  <si>
+    <t>Tiny cloud x:200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +311,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +342,24 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -292,7 +375,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,6 +383,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -636,22 +725,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB997A9-4AD8-4988-B84D-6C8FBDEC19BB}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
-    <col min="2" max="2" width="5.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.25" customWidth="1"/>
+    <col min="2" max="2" width="4.9140625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.08984375" customWidth="1"/>
-    <col min="5" max="6" width="7.90625" customWidth="1"/>
+    <col min="4" max="4" width="5.08203125" customWidth="1"/>
+    <col min="5" max="6" width="7.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,9 +754,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1916</v>
@@ -678,14 +767,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="G3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="D4" s="1">
         <v>76</v>
       </c>
@@ -693,9 +782,9 @@
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1916</v>
@@ -706,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K5" s="4">
         <v>1130</v>
@@ -715,7 +804,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="D6" s="3">
         <v>300</v>
       </c>
@@ -729,7 +818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="D7" s="1">
         <v>1615</v>
       </c>
@@ -737,24 +826,24 @@
         <v>1745</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>1916</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="D9" s="1">
         <v>870</v>
       </c>
@@ -765,441 +854,676 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>1918</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="D13" s="12">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="D14" s="1">
         <v>440</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E14" s="1">
         <v>683</v>
       </c>
-      <c r="G12" t="s">
+    </row>
+    <row r="15" spans="1:12">
+      <c r="D15" s="1">
+        <v>940</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>1916</v>
+      </c>
+      <c r="D17" s="1">
+        <v>75</v>
+      </c>
+      <c r="E17" s="1">
+        <v>350</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="D18" s="1">
+        <v>436</v>
+      </c>
+      <c r="E18" s="1">
+        <v>620</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>1915</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1">
+        <v>552</v>
+      </c>
+      <c r="G20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D13" s="4">
-        <v>498</v>
-      </c>
-      <c r="E13" s="4">
-        <v>660</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D14" s="1">
-        <v>940</v>
-      </c>
-      <c r="E14" s="1">
+    <row r="21" spans="1:9">
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>65</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="D24" s="5">
+        <v>132</v>
+      </c>
+      <c r="E24" s="5">
+        <v>442</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="D25" s="6">
+        <v>472</v>
+      </c>
+      <c r="E25" s="6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="D26" s="6">
+        <v>1162</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1280</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="D27" s="5">
+        <v>1640</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1915</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="D30" s="5">
+        <v>77</v>
+      </c>
+      <c r="E30" s="5">
+        <v>469</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="D31" s="5">
+        <v>500</v>
+      </c>
+      <c r="E31" s="5">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="D32" s="5">
+        <v>664</v>
+      </c>
+      <c r="E32" s="5">
+        <v>852</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="D33" s="5">
+        <v>950</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="D34" s="5">
+        <v>1865</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>1913</v>
+      </c>
+      <c r="D35" s="5">
+        <v>148</v>
+      </c>
+      <c r="E35" s="5">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>1913</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="D38" s="5">
+        <v>160</v>
+      </c>
+      <c r="E38" s="5">
+        <v>520</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="D39" s="5">
+        <v>1096</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1188</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>1913</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="D42" s="5">
+        <v>165</v>
+      </c>
+      <c r="E42" s="5">
+        <v>654</v>
+      </c>
+      <c r="G42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="D43" s="5">
+        <v>890</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="D44" s="5">
+        <v>1110</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1256</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46">
+        <v>1915</v>
+      </c>
+      <c r="D46" s="5">
+        <v>16</v>
+      </c>
+      <c r="E46" s="5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="D47">
+        <v>375</v>
+      </c>
+      <c r="E47">
+        <v>572</v>
+      </c>
+      <c r="G47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="D48" s="6">
+        <v>1260</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1342</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="D49" s="6">
+        <v>1346</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1448</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="D50" s="5">
+        <v>1478</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1566</v>
+      </c>
+      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52">
+        <v>1912</v>
+      </c>
+      <c r="D52" s="5">
+        <v>134</v>
+      </c>
+      <c r="E52" s="5">
+        <v>444</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="D53" s="6">
+        <v>444</v>
+      </c>
+      <c r="E53" s="6">
+        <v>566</v>
+      </c>
+      <c r="G53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="D54" s="6">
+        <v>906</v>
+      </c>
+      <c r="E54" s="6">
         <v>1085</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>1916</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="G54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="D55" s="5">
+        <v>1236</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="D56" s="5">
+        <v>1612</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="G57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>1912</v>
+      </c>
+      <c r="D59" s="2">
+        <v>535</v>
+      </c>
+      <c r="E59" s="2">
+        <v>616</v>
+      </c>
+      <c r="F59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="D60">
+        <v>1012</v>
+      </c>
+      <c r="G60" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="D61">
+        <v>1282</v>
+      </c>
+      <c r="G61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="D62">
+        <v>1670</v>
+      </c>
+      <c r="G62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="G63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66">
+        <v>1911</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>95</v>
+      </c>
+      <c r="G66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="D67" s="2">
+        <v>378</v>
+      </c>
+      <c r="E67" s="2">
+        <v>468</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F25D73-7253-4432-9DE8-363E0DCD742F}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1">
+        <v>1912</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>300</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>1910</v>
+      </c>
+      <c r="C4">
+        <v>182</v>
+      </c>
+      <c r="D4">
+        <v>336</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="C5">
+        <v>352</v>
+      </c>
+      <c r="D5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>1909</v>
+      </c>
+      <c r="C7">
+        <v>384</v>
+      </c>
+      <c r="D7">
+        <v>486</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>1906</v>
+      </c>
+      <c r="C11">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>455</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>1904</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>114</v>
+      </c>
+      <c r="F15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="C16">
+        <v>284</v>
+      </c>
+      <c r="D16">
+        <v>494</v>
+      </c>
+      <c r="F16" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="1">
-        <v>350</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D17" s="1">
-        <v>436</v>
-      </c>
-      <c r="E17" s="1">
-        <v>620</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>1915</v>
-      </c>
-      <c r="D19" s="1">
-        <v>40</v>
-      </c>
-      <c r="E19" s="1">
-        <v>552</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>65</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D23" s="5">
-        <v>132</v>
-      </c>
-      <c r="E23" s="5">
-        <v>442</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="6">
-        <v>472</v>
-      </c>
-      <c r="E24" s="6">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="6">
-        <v>1162</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1280</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="5">
-        <v>1640</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28">
-        <v>1915</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17">
+        <v>1144</v>
+      </c>
+      <c r="E17" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D29" s="5">
-        <v>77</v>
-      </c>
-      <c r="E29" s="5">
-        <v>469</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="5">
-        <v>500</v>
-      </c>
-      <c r="E30" s="5">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D31" s="5">
-        <v>664</v>
-      </c>
-      <c r="E31" s="5">
-        <v>852</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D32" s="5">
-        <v>950</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="5">
-        <v>1865</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>1913</v>
-      </c>
-      <c r="D34" s="5">
-        <v>148</v>
-      </c>
-      <c r="E34" s="5">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>1913</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D37" s="5">
-        <v>160</v>
-      </c>
-      <c r="E37" s="5">
-        <v>520</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D38" s="5">
-        <v>1096</v>
-      </c>
-      <c r="E38" s="5">
-        <v>1188</v>
-      </c>
-      <c r="G38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>1913</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D41" s="5">
-        <v>165</v>
-      </c>
-      <c r="E41" s="5">
-        <v>654</v>
-      </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D42" s="5">
-        <v>890</v>
-      </c>
-      <c r="E42" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D43" s="5">
-        <v>1110</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1256</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45">
-        <v>1915</v>
-      </c>
-      <c r="D45" s="5">
-        <v>16</v>
-      </c>
-      <c r="E45" s="5">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D46">
-        <v>375</v>
-      </c>
-      <c r="E46">
-        <v>572</v>
-      </c>
-      <c r="G46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D47" s="6">
-        <v>1260</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1342</v>
-      </c>
-      <c r="G47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D48" s="6">
-        <v>1346</v>
-      </c>
-      <c r="E48" s="6">
-        <v>1448</v>
-      </c>
-      <c r="G48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D49" s="5">
-        <v>1478</v>
-      </c>
-      <c r="E49" s="5">
-        <v>1566</v>
-      </c>
-      <c r="G49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51">
-        <v>1912</v>
-      </c>
-      <c r="D51" s="5">
-        <v>134</v>
-      </c>
-      <c r="E51" s="5">
-        <v>444</v>
-      </c>
-      <c r="G51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D52" s="6">
-        <v>444</v>
-      </c>
-      <c r="E52" s="6">
-        <v>566</v>
-      </c>
-      <c r="G52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D53" s="6">
-        <v>906</v>
-      </c>
-      <c r="E53" s="6">
-        <v>1085</v>
-      </c>
-      <c r="G53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D54" s="5">
-        <v>1236</v>
-      </c>
-      <c r="E54" s="5">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D55" s="5">
-        <v>1612</v>
-      </c>
-      <c r="E55" s="5">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G56" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/RangesOfCloudImages (version 1).xlsx
+++ b/RangesOfCloudImages (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anh\Documents\GitHub\machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2404714A-AF4D-410B-9682-9DA62FC87C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CABF71D-02FF-4C79-BC00-EBD0C56611FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A3147F9F-4C4D-477F-94EF-F3FCBDFD725F}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{A3147F9F-4C4D-477F-94EF-F3FCBDFD725F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB997A9-4AD8-4988-B84D-6C8FBDEC19BB}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -1380,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F25D73-7253-4432-9DE8-363E0DCD742F}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
